--- a/GA_bNa_bCa_NaK/AP_features_HCM.xlsx
+++ b/GA_bNa_bCa_NaK/AP_features_HCM.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,22 +477,142 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12.468939331129</v>
+        <v>13.28159707618824</v>
       </c>
       <c r="B5">
-        <v>28.83259168426052</v>
+        <v>26.94960324250033</v>
       </c>
       <c r="C5">
-        <v>118.9293260557649</v>
+        <v>114.293566731128</v>
       </c>
       <c r="D5">
-        <v>590.612835257627</v>
+        <v>591.6569738908074</v>
       </c>
       <c r="E5">
-        <v>709.7533335691405</v>
+        <v>701.373912724106</v>
       </c>
       <c r="F5">
-        <v>-76.47927501518193</v>
+        <v>-75.26884499365954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>12.24373167439009</v>
+      </c>
+      <c r="B6">
+        <v>30.56570354937126</v>
+      </c>
+      <c r="C6">
+        <v>103.3893617637142</v>
+      </c>
+      <c r="D6">
+        <v>592.2329781479348</v>
+      </c>
+      <c r="E6">
+        <v>710.8928943924911</v>
+      </c>
+      <c r="F6">
+        <v>-72.82365821434291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>12.76474737534656</v>
+      </c>
+      <c r="B7">
+        <v>24.48351832914108</v>
+      </c>
+      <c r="C7">
+        <v>111.5657622102897</v>
+      </c>
+      <c r="D7">
+        <v>589.4015328580863</v>
+      </c>
+      <c r="E7">
+        <v>714.3130063972203</v>
+      </c>
+      <c r="F7">
+        <v>-73.30147317375928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>12.14824599013426</v>
+      </c>
+      <c r="B8">
+        <v>20.04274147608038</v>
+      </c>
+      <c r="C8">
+        <v>107.2879905128977</v>
+      </c>
+      <c r="D8">
+        <v>586.7290285667841</v>
+      </c>
+      <c r="E8">
+        <v>717.7040788045852</v>
+      </c>
+      <c r="F8">
+        <v>-73.55765588722997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>12.4250750427806</v>
+      </c>
+      <c r="B9">
+        <v>26.83257247911481</v>
+      </c>
+      <c r="C9">
+        <v>99.51739438451602</v>
+      </c>
+      <c r="D9">
+        <v>587.5613473081321</v>
+      </c>
+      <c r="E9">
+        <v>713.9623259757209</v>
+      </c>
+      <c r="F9">
+        <v>-72.68482190540121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>13.04954084094371</v>
+      </c>
+      <c r="B10">
+        <v>32.38892051911979</v>
+      </c>
+      <c r="C10">
+        <v>117.0242428418227</v>
+      </c>
+      <c r="D10">
+        <v>594.6238288634486</v>
+      </c>
+      <c r="E10">
+        <v>716.510048938093</v>
+      </c>
+      <c r="F10">
+        <v>-75.075096590421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>15.55758775388691</v>
+      </c>
+      <c r="B11">
+        <v>34.7045668761188</v>
+      </c>
+      <c r="C11">
+        <v>108.0894573876566</v>
+      </c>
+      <c r="D11">
+        <v>588.2938192083893</v>
+      </c>
+      <c r="E11">
+        <v>708.1929488016685</v>
+      </c>
+      <c r="F11">
+        <v>-73.3848905115378</v>
       </c>
     </row>
   </sheetData>

--- a/GA_bNa_bCa_NaK/AP_features_HCM.xlsx
+++ b/GA_bNa_bCa_NaK/AP_features_HCM.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,6 +615,106 @@
         <v>-73.3848905115378</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12.59930786705231</v>
+      </c>
+      <c r="B12">
+        <v>17.91337781630207</v>
+      </c>
+      <c r="C12">
+        <v>101.6431220427862</v>
+      </c>
+      <c r="D12">
+        <v>585.2257271017806</v>
+      </c>
+      <c r="E12">
+        <v>709.0019020412583</v>
+      </c>
+      <c r="F12">
+        <v>-75.7715130394285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12.24499040458889</v>
+      </c>
+      <c r="B13">
+        <v>42.17052736107412</v>
+      </c>
+      <c r="C13">
+        <v>118.0925812092852</v>
+      </c>
+      <c r="D13">
+        <v>601.0561439789017</v>
+      </c>
+      <c r="E13">
+        <v>707.9097903170623</v>
+      </c>
+      <c r="F13">
+        <v>-75.92205384821112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>14.04820677240362</v>
+      </c>
+      <c r="B14">
+        <v>35.9237740960375</v>
+      </c>
+      <c r="C14">
+        <v>109.3980052361157</v>
+      </c>
+      <c r="D14">
+        <v>606.8149382417105</v>
+      </c>
+      <c r="E14">
+        <v>704.4891631176215</v>
+      </c>
+      <c r="F14">
+        <v>-73.47423114007816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14.44456296383963</v>
+      </c>
+      <c r="B15">
+        <v>24.54189915589326</v>
+      </c>
+      <c r="C15">
+        <v>95.84617612921942</v>
+      </c>
+      <c r="D15">
+        <v>599.9587233220373</v>
+      </c>
+      <c r="E15">
+        <v>685.4649859069468</v>
+      </c>
+      <c r="F15">
+        <v>-71.30427697332615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>14.14860302244888</v>
+      </c>
+      <c r="B16">
+        <v>29.44382206884794</v>
+      </c>
+      <c r="C16">
+        <v>102.3720744546007</v>
+      </c>
+      <c r="D16">
+        <v>602.6051752081548</v>
+      </c>
+      <c r="E16">
+        <v>718.6671056038613</v>
+      </c>
+      <c r="F16">
+        <v>-72.92825238575281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
